--- a/Data/EC/NIT-8000699336.xlsx
+++ b/Data/EC/NIT-8000699336.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D56B4E85-BD7F-4AF2-A598-A325DC804055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6155FECF-90C2-4511-9772-78613AECF882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14C0F336-0D3A-4FA7-836D-64160EC1A422}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BC63636-23B6-4562-B06C-9684785729F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,37 +65,46 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1193554162</t>
+  </si>
+  <si>
+    <t>KATERIN YULIETH LAGOS BELLO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
     <t>1143381131</t>
   </si>
   <si>
     <t>BELKYS CAROLINA RICARDO ROMERO</t>
   </si>
   <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
     <t>2412</t>
   </si>
   <si>
-    <t>2501</t>
-  </si>
-  <si>
     <t>1143349310</t>
   </si>
   <si>
     <t>BENISPAULET VILLAR ACEVEDO</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7F4225-81FA-1F88-B562-ED5C50AA6CE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F158BF-C8AD-CFF1-6E37-696D37230987}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF8DBB-3D6E-4EA2-83A6-AC672469CE4B}">
-  <dimension ref="B2:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C139AB8-A330-4065-AF38-C8DD98B5A9FE}">
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -885,7 +894,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -930,7 +939,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -962,12 +971,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>667333</v>
+        <v>828273</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -978,17 +987,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1015,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1038,10 +1047,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>43333</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1052,19 +1061,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1075,13 +1084,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1098,10 +1107,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>15</v>
@@ -1121,19 +1130,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1144,19 +1153,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1167,13 +1176,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>14</v>
-      </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1190,13 +1199,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>14</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1213,19 +1222,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>52000</v>
+        <v>43333</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1236,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1259,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1282,75 +1291,144 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="22" t="s">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F31" s="24">
         <v>52000</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G31" s="24">
         <v>1300000</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
